--- a/breeding_patterns - win, sum/Dam, Sire birth season/Dam_Sire_Combinations_EP.xlsx
+++ b/breeding_patterns - win, sum/Dam, Sire birth season/Dam_Sire_Combinations_EP.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">BirthMonth</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t xml:space="preserve">2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024</t>
   </si>
   <si>
     <t xml:space="preserve">1998</t>
@@ -512,9 +509,6 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -592,9 +586,6 @@
       <c r="Y2" t="n">
         <v>2</v>
       </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -672,9 +663,6 @@
       <c r="Y3" t="n">
         <v>3</v>
       </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -752,9 +740,6 @@
       <c r="Y4" t="n">
         <v>0</v>
       </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -832,9 +817,6 @@
       <c r="Y5" t="n">
         <v>0</v>
       </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -912,9 +894,6 @@
       <c r="Y6" t="n">
         <v>0</v>
       </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -991,9 +970,6 @@
       </c>
       <c r="Y7" t="n">
         <v>1</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1072,9 +1048,6 @@
       <c r="Y8" t="n">
         <v>3</v>
       </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1152,9 +1125,6 @@
       <c r="Y9" t="n">
         <v>0</v>
       </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1232,9 +1202,6 @@
       <c r="Y10" t="n">
         <v>0</v>
       </c>
-      <c r="Z10" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1312,9 +1279,6 @@
       <c r="Y11" t="n">
         <v>0</v>
       </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1392,9 +1356,6 @@
       <c r="Y12" t="n">
         <v>1</v>
       </c>
-      <c r="Z12" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1470,9 +1431,6 @@
         <v>5</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1498,10 +1456,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1543,7 +1501,7 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S1" t="s">
         <v>17</v>
@@ -1569,9 +1527,6 @@
       <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1652,9 +1607,6 @@
       <c r="Z2" t="n">
         <v>0</v>
       </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1735,9 +1687,6 @@
       <c r="Z3" t="n">
         <v>0</v>
       </c>
-      <c r="AA3" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1818,9 +1767,6 @@
       <c r="Z4" t="n">
         <v>0</v>
       </c>
-      <c r="AA4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1901,9 +1847,6 @@
       <c r="Z5" t="n">
         <v>0</v>
       </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1984,9 +1927,6 @@
       <c r="Z6" t="n">
         <v>0</v>
       </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2066,9 +2006,6 @@
       </c>
       <c r="Z7" t="n">
         <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -2150,9 +2087,6 @@
       <c r="Z8" t="n">
         <v>0</v>
       </c>
-      <c r="AA8" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2233,9 +2167,6 @@
       <c r="Z9" t="n">
         <v>1</v>
       </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2316,9 +2247,6 @@
       <c r="Z10" t="n">
         <v>2</v>
       </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2399,9 +2327,6 @@
       <c r="Z11" t="n">
         <v>0</v>
       </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2482,9 +2407,6 @@
       <c r="Z12" t="n">
         <v>0</v>
       </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2564,9 +2486,6 @@
       </c>
       <c r="Z13" t="n">
         <v>3</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2591,10 +2510,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -2636,7 +2555,7 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S1" t="s">
         <v>17</v>
@@ -2653,9 +2572,6 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2727,9 +2643,6 @@
       <c r="W2" t="n">
         <v>0</v>
       </c>
-      <c r="X2" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2801,9 +2714,6 @@
       <c r="W3" t="n">
         <v>0</v>
       </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -2875,9 +2785,6 @@
       <c r="W4" t="n">
         <v>0</v>
       </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -2949,9 +2856,6 @@
       <c r="W5" t="n">
         <v>0</v>
       </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -3023,9 +2927,6 @@
       <c r="W6" t="n">
         <v>0</v>
       </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -3095,9 +2996,6 @@
         <v>3</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3171,9 +3069,6 @@
       <c r="W8" t="n">
         <v>0</v>
       </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -3245,9 +3140,6 @@
       <c r="W9" t="n">
         <v>1</v>
       </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -3319,9 +3211,6 @@
       <c r="W10" t="n">
         <v>0</v>
       </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -3393,9 +3282,6 @@
       <c r="W11" t="n">
         <v>2</v>
       </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -3467,9 +3353,6 @@
       <c r="W12" t="n">
         <v>0</v>
       </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -3539,9 +3422,6 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3570,10 +3450,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -3606,10 +3486,10 @@
         <v>16</v>
       </c>
       <c r="P1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R1" t="s">
         <v>17</v>
@@ -3632,9 +3512,6 @@
       <c r="X1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -3709,9 +3586,6 @@
       <c r="X2" t="n">
         <v>0</v>
       </c>
-      <c r="Y2" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -3786,9 +3660,6 @@
       <c r="X3" t="n">
         <v>0</v>
       </c>
-      <c r="Y3" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -3863,9 +3734,6 @@
       <c r="X4" t="n">
         <v>0</v>
       </c>
-      <c r="Y4" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -3940,9 +3808,6 @@
       <c r="X5" t="n">
         <v>0</v>
       </c>
-      <c r="Y5" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -4017,9 +3882,6 @@
       <c r="X6" t="n">
         <v>0</v>
       </c>
-      <c r="Y6" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -4092,9 +3954,6 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4171,9 +4030,6 @@
       <c r="X8" t="n">
         <v>2</v>
       </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -4248,9 +4104,6 @@
       <c r="X9" t="n">
         <v>0</v>
       </c>
-      <c r="Y9" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -4325,9 +4178,6 @@
       <c r="X10" t="n">
         <v>0</v>
       </c>
-      <c r="Y10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -4402,9 +4252,6 @@
       <c r="X11" t="n">
         <v>0</v>
       </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -4479,9 +4326,6 @@
       <c r="X12" t="n">
         <v>2</v>
       </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -4555,9 +4399,6 @@
       </c>
       <c r="X13" t="n">
         <v>1</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
